--- a/google search trend.xlsx
+++ b/google search trend.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gowustl-my.sharepoint.com/personal/lingechun_wustl_edu/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alper\OneDrive\Belgeler\GitHub\betapoliceblm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{EBFA929E-09B3-4EAB-8F49-4F8D6A0260CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DF57B01F-F514-1C47-BE74-D400DF04AEB6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C46BBACE-242C-4B2D-950D-0E2B19A40E25}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" xr2:uid="{A331B90D-65AA-4152-AB25-997A9ED92D6A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A331B90D-65AA-4152-AB25-997A9ED92D6A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>food</t>
   </si>
@@ -78,6 +76,15 @@
   </si>
   <si>
     <t>survival/emergency food</t>
+  </si>
+  <si>
+    <t>vote by mail</t>
+  </si>
+  <si>
+    <t>medicare for all</t>
+  </si>
+  <si>
+    <t>election</t>
   </si>
 </sst>
 </file>
@@ -437,19 +444,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47912FC8-2C14-4AAE-8D30-2BDDFADDF047}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="276" zoomScaleNormal="276" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -457,7 +464,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -465,12 +472,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -478,17 +485,22 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -496,22 +508,30 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>4</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -520,6 +540,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B7DB2BE1FB87F741BA808F969A212050" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8b8c266cfcc85c5334d86226532745a4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="86ea508d-3e80-4a87-9a68-27a789d11173" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="02af10e91857c7b414730a0f7154f04e" ns3:_="">
     <xsd:import namespace="86ea508d-3e80-4a87-9a68-27a789d11173"/>
@@ -703,22 +738,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{081E02BA-9D86-4662-AF94-E59E7498E351}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="86ea508d-3e80-4a87-9a68-27a789d11173"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB8820C8-667E-47A9-96A1-5C91A4598E3D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59B206C1-F4A9-43BA-993E-026E99070263}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -734,28 +778,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB8820C8-667E-47A9-96A1-5C91A4598E3D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{081E02BA-9D86-4662-AF94-E59E7498E351}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="86ea508d-3e80-4a87-9a68-27a789d11173"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/google search trend.xlsx
+++ b/google search trend.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alper\OneDrive\Belgeler\GitHub\betapoliceblm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C46BBACE-242C-4B2D-950D-0E2B19A40E25}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0069CBD2-0D95-42AD-AFAF-016A4F1C160E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A331B90D-65AA-4152-AB25-997A9ED92D6A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>food</t>
   </si>
@@ -85,6 +85,18 @@
   </si>
   <si>
     <t>election</t>
+  </si>
+  <si>
+    <t>control</t>
+  </si>
+  <si>
+    <t>jigsaw puzzle</t>
+  </si>
+  <si>
+    <t>baking</t>
+  </si>
+  <si>
+    <t>bread</t>
   </si>
 </sst>
 </file>
@@ -444,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47912FC8-2C14-4AAE-8D30-2BDDFADDF047}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -534,27 +546,30 @@
         <v>15</v>
       </c>
     </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B7DB2BE1FB87F741BA808F969A212050" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8b8c266cfcc85c5334d86226532745a4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="86ea508d-3e80-4a87-9a68-27a789d11173" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="02af10e91857c7b414730a0f7154f04e" ns3:_="">
     <xsd:import namespace="86ea508d-3e80-4a87-9a68-27a789d11173"/>
@@ -738,31 +753,22 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{081E02BA-9D86-4662-AF94-E59E7498E351}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="86ea508d-3e80-4a87-9a68-27a789d11173"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB8820C8-667E-47A9-96A1-5C91A4598E3D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59B206C1-F4A9-43BA-993E-026E99070263}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -778,4 +784,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB8820C8-667E-47A9-96A1-5C91A4598E3D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{081E02BA-9D86-4662-AF94-E59E7498E351}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="86ea508d-3e80-4a87-9a68-27a789d11173"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>